--- a/Sena/Registro de Aprendisaje - Analisis y desarrollo de sistemas informaticos/Fase 1. identificación/Trabajos y sus directrises/7. Identificación del proceso de software para el proyecto de desarrollo en curso/Resuelto. Evidencia AP01-AA1-EV07 - Identificación del proceso de software para el proyecto de desarrollo en curso.xlsx
+++ b/Sena/Registro de Aprendisaje - Analisis y desarrollo de sistemas informaticos/Fase 1. identificación/Trabajos y sus directrises/7. Identificación del proceso de software para el proyecto de desarrollo en curso/Resuelto. Evidencia AP01-AA1-EV07 - Identificación del proceso de software para el proyecto de desarrollo en curso.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>Entradas</t>
   </si>
@@ -903,6 +903,824 @@
   </si>
   <si>
     <t>Sobre los formularios: (salto de linea). Las fechas son reflejadas automaticamente por el sistema de información. (salto de linea) los números de referencia de las mercancias, y el nombre de las mismas, son designados internamente por la empresa; adicionalmente, la organización de esta información en la base de datos, en función a facilitar busquedas avanzadas, contará con listas desplegables y filtros (ya sea para insumos o para productos listos para la venta). (salto de linea) La divisa con la que se llevarán a cabo los registros de los procesos contables, dentro del sistema de información, será el peso colombiano.</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>El administrador del sistema o ""</t>
+  </si>
+  <si>
+    <t>El administrador del sistema o "superusuario" al hace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como usuario en el sistema, también puede disponer dentro de las opciones del menú principal la capacidad de generar reportes; especialmente, reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso de estudio actual, la empresa podría crear reportes sobre la rotación de inventario de la misma y tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> en el sistema, también puede disponer dentro de las opciones del </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">menú principal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">la capacidad de generar reportes; especialmente, reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso de estudio actual, la empresa podría crear reportes sobre la rotación de inventario de la misma y tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como usuario en el sistema, también puede disponer, dentro de las opciones del menú principal, la capacidad de generar reportes; especialmente, reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso de estudio actual, la empresa podría crear reportes sobre la rotación de inventario de la misma y tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> en el sistema, también puede disponer, dentro de las opciones del </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">menú principal, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">la capacidad de generar reportes; especialmente, reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso de estudio actual, la empresa podría crear reportes sobre la rotación de inventario de la misma y tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como usuario en el sistema, también puede disponer, dentro de las opciones del menú principal, la capacidad de generar reportes; especialmente, reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa podría crear reportes sobre la rotación de inventario de la misma y tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> en el sistema, también puede disponer, dentro de las opciones del </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">menú principal, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">la capacidad de generar reportes; especialmente, reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa podría crear reportes sobre la rotación de inventario de la misma y tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como usuario en el sistema, también puede disponer, dentro de las opciones del menú principal, la capacidad de generar reportes; especialmente, reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa Vidríeria y ornamentación Emanuel podría crear reportes sobre la rotación de inventario de la misma y tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> en el sistema, también puede disponer, dentro de las opciones del </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">menú principal, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">la capacidad de generar reportes; especialmente, reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Vidríeria y ornamentación Emanuel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">podría crear reportes sobre la rotación de inventario de la misma y tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como usuario en el sistema, también puede disponer, dentro de las opciones del menú principal, la capacidad de generar reportes en una etiqueta llamada "Reportes"; especialmente, reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa Vidríeria y ornamentación Emanuel podría crear reportes sobre la rotación de inventario de la misma y tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> en el sistema, también puede disponer, dentro de las opciones del </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">menú principal, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">la capacidad de generar reportes en una etiqueta llamada "Reportes"; especialmente, reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Vidríeria y ornamentación Emanuel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">podría crear reportes sobre la rotación de inventario de la misma y tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como usuario en el sistema, también puede disponer, dentro de las opciones del menú principal, la capacidad de generar reportes en una etiqueta llamada Reportes; especialmente, reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa Vidríeria y ornamentación Emanuel podría crear reportes sobre la rotación de inventario de la misma y tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> en el sistema, también puede disponer, dentro de las opciones del </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">menú principal, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">la capacidad de generar reportes en una etiqueta llamada </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>Reportes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">; especialmente, reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Vidríeria y ornamentación Emanuel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">podría crear reportes sobre la rotación de inventario de la misma y tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como usuario en el sistema, también puede disponer, dentro de las opciones del menú principal, la capacidad de generar reportes; especialmente, reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa Vidríeria y ornamentación Emanuel podría crear reportes sobre la rotación de inventario de la misma y tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como usuario en el sistema, también puede disponer, dentro de las opciones del menú principal, la capacidad de generar reportes; especialmente, serían reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa Vidríeria y ornamentación Emanuel podría crear reportes con la formula sobre la rotación de inventario de la misma y tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> en el sistema, también puede disponer, dentro de las opciones del </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">menú principal, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">la capacidad de generar reportes; especialmente, serían reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Vidríeria y ornamentación Emanuel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">podría crear reportes con la formula sobre la </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>rotación de inventario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> de la misma y tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como usuario en el sistema, también puede disponer, dentro de las opciones del menú principal, la capacidad de generar reportes; especialmente, serían reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa Vidríeria y ornamentación Emanuel podría crear reportes con la formula sobre la rotación de inventario; y, a partir de ahí, tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> en el sistema, también puede disponer, dentro de las opciones del </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">menú principal, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">la capacidad de generar reportes; especialmente, serían reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Vidríeria y ornamentación Emanuel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">podría crear reportes con la formula sobre la </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>rotación de inventario;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> y, a partir de ahí, tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como usuario en el sistema, también puede disponer, dentro de las opciones del menú principal, la capacidad de generar reportes; especialmente, serían reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado en cuestión. Es decir, para nuestro caso puntual en estudio, la empresa Vidríeria y ornamentación Emanuel podría crear reportes con la formula sobre la rotación de inventario; y, a partir de ahí, tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> en el sistema, también puede disponer, dentro de las opciones del </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">menú principal, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">la capacidad de generar reportes; especialmente, serían reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado en cuestión. Es decir, para nuestro caso puntual en estudio, la empresa </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Vidríeria y ornamentación Emanuel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">podría crear reportes con la formula sobre la </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>rotación de inventario;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> y, a partir de ahí, tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como usuario en el sistema, también puede disponer, dentro de las opciones del menú principal, la capacidad de generar reportes; especialmente, serían reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa Vidríeria y ornamentación Emanuel podría crear reportes con la formula sobre la rotación de inventario; y, a partir de ahí, tomar decisiones de inversión a partir de eso. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como usuario en el sistema, también puede disponer, dentro de las opciones del menú principal, la capacidad de generar reportes; especialmente, serían reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa Vidríeria y ornamentación Emanuel podría crear reportes con la formula sobre la rotación de inventario; y, a partir de esa información, tomar mejores decisiones de inversión. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> en el sistema, también puede disponer, dentro de las opciones del </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">menú principal, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">la capacidad de generar reportes; especialmente, serían reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Vidríeria y ornamentación Emanuel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">podría crear reportes con la formula sobre la </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>rotación de inventario;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> y, a partir de esa información, tomar mejores decisiones de inversión. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados por el administrador del sistema o "superusuario" en cuestión.  </t>
+    </r>
+  </si>
+  <si>
+    <t>Los reportes generados por el sistema de información pueden ser evaluados conjuntamente con todos los usuarios vinculados a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como usuario en el sistema, también puede disponer, dentro de las opciones del menú principal, la capacidad de generar reportes; especialmente, serían reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa Vidríeria y ornamentación Emanuel podría crear reportes con la formula sobre la rotación de inventario; y, a partir de esa información, tomar mejores decisiones de inversión. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados (dentro del sistema) por el administrador del sistema o "superusuario" en cuestión.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> en el sistema, también puede disponer, dentro de las opciones del </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">menú principal, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">la capacidad de generar reportes; especialmente, serían reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Vidríeria y ornamentación Emanuel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">podría crear reportes con la formula sobre la </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>rotación de inventario;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> y, a partir de esa información, tomar mejores decisiones de inversión. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados (dentro del sistema) por el administrador del sistema o "superusuario" en cuestión.  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como usuario en el sistema, también puede disponer, dentro de las opciones del menú principal, la capacidad de generar reportes; especialmente, serían reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa Vidríeria y ornamentación Emanuel podría crear reportes con la formula sobre la rotación de inventario; y, a partir de esa información, tomar mejores decisiones de inversión. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados (dentro del sistema) por el administrador del sistema en cuestión.  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El administrador del sistema o "superusuario", al hacer login como </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>usuario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> en el sistema, también puede disponer, dentro de las opciones del </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">menú principal, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">la capacidad de generar reportes; especialmente, serían reportes en relación a los indicadores financieros definidos dentro del sistema de información desarrollado. Es decir, para nuestro caso puntual en estudio, la empresa </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Vidríeria y ornamentación Emanuel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">podría crear reportes con la formula sobre la </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>rotación de inventario;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> y, a partir de esa información, tomar mejores decisiones de inversión. Los reportes no pueden ser alterados ni eliminados y, adicionalmente, sólo pueden ser consultados (dentro del sistema) por el administrador del sistema en cuestión.  </t>
+    </r>
+  </si>
+  <si>
+    <t>Los reportes generados por el sistema de información pueden ser evaluados conjuntamente con todos los usuarios vinculados a la empresa, en reuniones designadas de manera fija cada periodo de tiempo</t>
+  </si>
+  <si>
+    <t>Los reportes generados por el sistema de información pueden ser evaluados conjuntamente con todos los usuarios vinculados a la empresa; éstos, idealmente, serían discutidos en reuniones designadas de manera fija cada cierto periodo de tiempo (mensualmente).</t>
+  </si>
+  <si>
+    <t>Los reportes generados por el sistema de información pueden ser evaluados conjuntamente con todos los usuarios vinculados a la empresa; éstos, idealmente, serían discutidos en reuniones designadas de manera fija cada cierto periodo de tiempo (mensual y anualmente).</t>
+  </si>
+  <si>
+    <t>Los reportes generados, por el sistema de información, pueden ser evaluados conjuntamente con todos los usuarios vinculados a la empresa; éstos, idealmente, serían discutidos en reuniones designadas de manera fija cada cierto periodo de tiempo (mensual y anualmente).</t>
+  </si>
+  <si>
+    <t>Los reportes generados, por el sistema de información, pueden ser evaluados conjuntamente con todos los usuarios vinculados a la empresa; estos reportes, idealmente, serían discutidos en reuniones designadas de manera fija cada cierto periodo de tiempo (mensual y anualmente).</t>
+  </si>
+  <si>
+    <t>Los reportes generados, por el sistema de información, pueden ser evaluados conjuntamente con todos los usuarios vinculados a la empresa; estos reportes, idealmente, serían discutidos en reuniones designadas cada cierto periodo de tiempo de manera fija (mensual y anualmente).</t>
+  </si>
+  <si>
+    <t>Los reportes generados, por el sistema de información, pueden ser evaluados conjuntamente con todos los usuarios vinculados a la empresa; estos reportes, idealmente, serían discutidos en reuniones designadas, de manera fija, cada cierto periodo de tiempo (mensual y anualmente).</t>
+  </si>
+  <si>
+    <t>Los reportes generados, por el sistema de información, pueden ser evaluados conjuntamente con todos los usuarios vinculados a la empresa; estos reportes, idealmente, serían discutidos en reuniones designadas, de manera fija, cada cierto periodo de tiempo (mensual y/o anualmente).</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +2369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1695,6 +2513,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2014,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView topLeftCell="A124" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -2537,77 +3373,107 @@
       <c r="B128" s="39"/>
       <c r="C128" s="35"/>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="1:3">
       <c r="B129" s="39"/>
       <c r="C129" s="35"/>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="1:3">
       <c r="B130" s="39"/>
       <c r="C130" s="35"/>
     </row>
-    <row r="131" spans="2:3">
+    <row r="131" spans="1:3">
       <c r="B131" s="39"/>
       <c r="C131" s="35"/>
     </row>
-    <row r="132" spans="2:3">
-      <c r="B132" s="35"/>
+    <row r="132" spans="1:3">
       <c r="C132" s="35"/>
     </row>
-    <row r="133" spans="2:3">
-      <c r="B133" s="35"/>
-      <c r="C133" s="35"/>
-    </row>
-    <row r="134" spans="2:3">
-      <c r="B134" s="35"/>
-      <c r="C134" s="35"/>
-    </row>
-    <row r="135" spans="2:3">
-      <c r="C135" s="35"/>
-    </row>
-    <row r="136" spans="2:3">
-      <c r="C136" s="35"/>
-    </row>
-    <row r="137" spans="2:3">
-      <c r="C137" s="35"/>
-    </row>
-    <row r="138" spans="2:3">
-      <c r="C138" s="35"/>
-    </row>
-    <row r="139" spans="2:3">
-      <c r="C139" s="35"/>
-    </row>
-    <row r="140" spans="2:3">
-      <c r="C140" s="35"/>
-    </row>
-    <row r="141" spans="2:3">
-      <c r="C141" s="35"/>
-    </row>
-    <row r="142" spans="2:3">
+    <row r="133" spans="1:3">
+      <c r="A133" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B133" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" s="39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="B134" s="39"/>
+      <c r="C134" s="39"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="B135" s="39"/>
+      <c r="C135" s="39"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="B136" s="39"/>
+      <c r="C136" s="39"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="B137" s="39"/>
+      <c r="C137" s="39"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="B139" s="39"/>
+      <c r="C139" s="39"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="B140" s="39"/>
+      <c r="C140" s="39"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="B141" s="39"/>
+      <c r="C141" s="39"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="B142" s="39"/>
       <c r="C142" s="35"/>
     </row>
-    <row r="143" spans="2:3">
+    <row r="143" spans="1:3">
+      <c r="B143" s="39"/>
       <c r="C143" s="35"/>
     </row>
-    <row r="144" spans="2:3">
+    <row r="144" spans="1:3">
+      <c r="B144" s="39"/>
       <c r="C144" s="35"/>
     </row>
-    <row r="145" spans="3:3">
+    <row r="145" spans="2:3">
+      <c r="B145" s="39"/>
       <c r="C145" s="35"/>
     </row>
-    <row r="146" spans="3:3">
+    <row r="146" spans="2:3">
+      <c r="B146" s="39"/>
       <c r="C146" s="35"/>
     </row>
-    <row r="147" spans="3:3">
+    <row r="147" spans="2:3">
+      <c r="B147" s="39"/>
       <c r="C147" s="35"/>
     </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="39"/>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" s="35"/>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="B2:B53"/>
     <mergeCell ref="C2:C27"/>
     <mergeCell ref="B55:B104"/>
     <mergeCell ref="C55:C72"/>
     <mergeCell ref="B106:B131"/>
     <mergeCell ref="C106:C125"/>
+    <mergeCell ref="B133:B148"/>
+    <mergeCell ref="C133:C141"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/Sena/Registro de Aprendisaje - Analisis y desarrollo de sistemas informaticos/Fase 1. identificación/Trabajos y sus directrises/7. Identificación del proceso de software para el proyecto de desarrollo en curso/Resuelto. Evidencia AP01-AA1-EV07 - Identificación del proceso de software para el proyecto de desarrollo en curso.xlsx
+++ b/Sena/Registro de Aprendisaje - Analisis y desarrollo de sistemas informaticos/Fase 1. identificación/Trabajos y sus directrises/7. Identificación del proceso de software para el proyecto de desarrollo en curso/Resuelto. Evidencia AP01-AA1-EV07 - Identificación del proceso de software para el proyecto de desarrollo en curso.xlsx
@@ -2058,7 +2058,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -2219,6 +2219,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2369,7 +2672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2518,19 +2821,178 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2852,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView topLeftCell="A101" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -2863,7 +3325,7 @@
     <col min="3" max="3" width="30.86214338" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="16.500000">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="16.500000">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2873,595 +3335,771 @@
       <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="45" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="89" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="39"/>
-      <c r="C28" s="35"/>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="39"/>
-      <c r="C29" s="35"/>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="39"/>
-      <c r="C30" s="35"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="39"/>
-      <c r="C31" s="35"/>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="39"/>
-      <c r="C32" s="35"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="39"/>
-      <c r="C33" s="35"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="39"/>
-      <c r="C34" s="35"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="39"/>
-      <c r="C35" s="35"/>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="39"/>
-      <c r="C36" s="35"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="39"/>
-      <c r="C37" s="35"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="39"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="39"/>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="39"/>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="39"/>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="39"/>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="39"/>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="39"/>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="39"/>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="39"/>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="39"/>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="39"/>
+    <row r="3" spans="1:4">
+      <c r="A3" s="90"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="91"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="90"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="91"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="90"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="91"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="90"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="91"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="90"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="91"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="90"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="91"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="90"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="91"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="90"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="91"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="90"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="91"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="90"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="91"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="90"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="91"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="90"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="91"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="90"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="91"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="90"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="91"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="90"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="91"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="90"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="91"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="90"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="91"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="90"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="91"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="90"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="91"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="90"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="91"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="90"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="91"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="90"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="91"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="90"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="91"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="90"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="91"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="90"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="91"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="90"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="92"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="90"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="92"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="90"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="92"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="90"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="92"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="90"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="92"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="90"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="92"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="90"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="92"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="90"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="92"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="90"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="92"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="90"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="92"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="90"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="100"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="90"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="100"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="90"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="100"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="90"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="100"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="90"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="100"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="90"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="100"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="90"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="100"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="90"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="100"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="90"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="100"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="90"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="100"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="90"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="100"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="B49" s="39"/>
+      <c r="A49" s="90"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="100"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="B50" s="39"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="100"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="B51" s="39"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="100"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="B52" s="39"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="100"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="B53" s="39"/>
+      <c r="A53" s="93"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="95"/>
     </row>
     <row r="54" spans="1:3">
+      <c r="A54" s="52"/>
       <c r="B54" s="35"/>
+      <c r="C54" s="55"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="89" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
+      <c r="A56" s="90"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="91"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
+      <c r="A57" s="90"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="91"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
+      <c r="A58" s="90"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="91"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
+      <c r="A59" s="90"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="91"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
+      <c r="A60" s="90"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="91"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
+      <c r="A61" s="90"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="91"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
+      <c r="A62" s="90"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="91"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
+      <c r="A63" s="90"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="91"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="39"/>
-      <c r="C73" s="35"/>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="39"/>
-      <c r="C74" s="35"/>
-    </row>
-    <row r="75" spans="2:3">
-      <c r="B75" s="39"/>
-      <c r="C75" s="35"/>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="B76" s="39"/>
-      <c r="C76" s="35"/>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="39"/>
-      <c r="C77" s="35"/>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="B78" s="39"/>
-      <c r="C78" s="35"/>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="39"/>
-      <c r="C79" s="35"/>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="B80" s="39"/>
-      <c r="C80" s="35"/>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="B81" s="39"/>
-      <c r="C81" s="35"/>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="B82" s="39"/>
-      <c r="C82" s="35"/>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83" s="39"/>
-      <c r="C83" s="35"/>
-    </row>
-    <row r="84" spans="2:3">
-      <c r="B84" s="39"/>
-      <c r="C84" s="35"/>
-    </row>
-    <row r="85" spans="2:3">
-      <c r="B85" s="39"/>
-      <c r="C85" s="35"/>
-    </row>
-    <row r="86" spans="2:3">
-      <c r="B86" s="39"/>
-      <c r="C86" s="35"/>
-    </row>
-    <row r="87" spans="2:3">
-      <c r="B87" s="39"/>
-      <c r="C87" s="35"/>
-    </row>
-    <row r="88" spans="2:3">
-      <c r="B88" s="39"/>
-      <c r="C88" s="35"/>
-    </row>
-    <row r="89" spans="2:3">
-      <c r="B89" s="39"/>
-      <c r="C89" s="35"/>
-    </row>
-    <row r="90" spans="2:3">
-      <c r="B90" s="39"/>
-      <c r="C90" s="35"/>
-    </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="39"/>
-      <c r="C91" s="35"/>
-    </row>
-    <row r="92" spans="2:3">
-      <c r="B92" s="39"/>
-      <c r="C92" s="35"/>
-    </row>
-    <row r="93" spans="2:3">
-      <c r="B93" s="39"/>
-      <c r="C93" s="35"/>
-    </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="39"/>
-      <c r="C94" s="35"/>
-    </row>
-    <row r="95" spans="2:3">
-      <c r="B95" s="39"/>
-      <c r="C95" s="35"/>
-    </row>
-    <row r="96" spans="2:3">
-      <c r="B96" s="39"/>
+      <c r="A64" s="90"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="91"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="90"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="91"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="90"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="91"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="90"/>
+      <c r="B67" s="81"/>
+      <c r="C67" s="91"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="90"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="91"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="90"/>
+      <c r="B69" s="81"/>
+      <c r="C69" s="91"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="90"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="91"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="90"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="91"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="90"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="91"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="90"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="92"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="90"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="92"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="90"/>
+      <c r="B75" s="81"/>
+      <c r="C75" s="92"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="90"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="92"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="90"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="92"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="90"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="92"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="90"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="92"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="90"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="92"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="90"/>
+      <c r="B81" s="81"/>
+      <c r="C81" s="92"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="90"/>
+      <c r="B82" s="81"/>
+      <c r="C82" s="92"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="90"/>
+      <c r="B83" s="81"/>
+      <c r="C83" s="92"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="90"/>
+      <c r="B84" s="81"/>
+      <c r="C84" s="92"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="90"/>
+      <c r="B85" s="81"/>
+      <c r="C85" s="92"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="90"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="92"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="90"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="92"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="90"/>
+      <c r="B88" s="81"/>
+      <c r="C88" s="92"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="90"/>
+      <c r="B89" s="81"/>
+      <c r="C89" s="92"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="90"/>
+      <c r="B90" s="81"/>
+      <c r="C90" s="92"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="90"/>
+      <c r="B91" s="81"/>
+      <c r="C91" s="92"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="90"/>
+      <c r="B92" s="81"/>
+      <c r="C92" s="92"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="90"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="92"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="90"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="92"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="90"/>
+      <c r="B95" s="81"/>
+      <c r="C95" s="92"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="90"/>
+      <c r="B96" s="81"/>
+      <c r="C96" s="100"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="B97" s="39"/>
+      <c r="A97" s="90"/>
+      <c r="B97" s="81"/>
+      <c r="C97" s="100"/>
     </row>
     <row r="98" spans="1:3">
-      <c r="B98" s="39"/>
+      <c r="A98" s="90"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="100"/>
     </row>
     <row r="99" spans="1:3">
-      <c r="B99" s="39"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="81"/>
+      <c r="C99" s="100"/>
     </row>
     <row r="100" spans="1:3">
-      <c r="B100" s="39"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="81"/>
+      <c r="C100" s="100"/>
     </row>
     <row r="101" spans="1:3">
-      <c r="B101" s="39"/>
+      <c r="A101" s="90"/>
+      <c r="B101" s="81"/>
+      <c r="C101" s="100"/>
     </row>
     <row r="102" spans="1:3">
-      <c r="B102" s="39"/>
+      <c r="A102" s="90"/>
+      <c r="B102" s="81"/>
+      <c r="C102" s="100"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="B103" s="39"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="B104" s="40"/>
+      <c r="A103" s="90"/>
+      <c r="B103" s="81"/>
+      <c r="C103" s="100"/>
+    </row>
+    <row r="104" spans="1:3" ht="17.250000">
+      <c r="A104" s="93"/>
+      <c r="B104" s="101"/>
+      <c r="C104" s="95"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="52"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="55"/>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="B106" s="39" t="s">
+      <c r="B106" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="C106" s="39" t="s">
+      <c r="C106" s="89" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
+      <c r="A107" s="90"/>
+      <c r="B107" s="81"/>
+      <c r="C107" s="91"/>
     </row>
     <row r="108" spans="1:3">
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
+      <c r="A108" s="90"/>
+      <c r="B108" s="81"/>
+      <c r="C108" s="91"/>
     </row>
     <row r="109" spans="1:3">
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
+      <c r="A109" s="90"/>
+      <c r="B109" s="81"/>
+      <c r="C109" s="91"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
+      <c r="A110" s="90"/>
+      <c r="B110" s="81"/>
+      <c r="C110" s="91"/>
     </row>
     <row r="111" spans="1:3">
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="81"/>
+      <c r="C111" s="91"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
-    </row>
-    <row r="113" spans="2:3">
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-    </row>
-    <row r="114" spans="2:3">
-      <c r="B114" s="39"/>
-      <c r="C114" s="39"/>
-    </row>
-    <row r="115" spans="2:3">
-      <c r="B115" s="39"/>
-      <c r="C115" s="39"/>
-    </row>
-    <row r="116" spans="2:3">
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
-    </row>
-    <row r="117" spans="2:3">
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-    </row>
-    <row r="118" spans="2:3">
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-    </row>
-    <row r="119" spans="2:3">
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-    </row>
-    <row r="120" spans="2:3">
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
-    </row>
-    <row r="121" spans="2:3">
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
-    </row>
-    <row r="122" spans="2:3">
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
-    </row>
-    <row r="123" spans="2:3">
-      <c r="B123" s="39"/>
-      <c r="C123" s="39"/>
-    </row>
-    <row r="124" spans="2:3">
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-    </row>
-    <row r="125" spans="2:3">
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-    </row>
-    <row r="126" spans="2:3">
-      <c r="B126" s="39"/>
-      <c r="C126" s="35"/>
-    </row>
-    <row r="127" spans="2:3">
-      <c r="B127" s="39"/>
-      <c r="C127" s="35"/>
-    </row>
-    <row r="128" spans="2:3">
-      <c r="B128" s="39"/>
-      <c r="C128" s="35"/>
+      <c r="A112" s="90"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="91"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="90"/>
+      <c r="B113" s="81"/>
+      <c r="C113" s="91"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="90"/>
+      <c r="B114" s="81"/>
+      <c r="C114" s="91"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="90"/>
+      <c r="B115" s="81"/>
+      <c r="C115" s="91"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="90"/>
+      <c r="B116" s="81"/>
+      <c r="C116" s="91"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="90"/>
+      <c r="B117" s="81"/>
+      <c r="C117" s="91"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="90"/>
+      <c r="B118" s="81"/>
+      <c r="C118" s="91"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="90"/>
+      <c r="B119" s="81"/>
+      <c r="C119" s="91"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="90"/>
+      <c r="B120" s="81"/>
+      <c r="C120" s="91"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="90"/>
+      <c r="B121" s="81"/>
+      <c r="C121" s="91"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="90"/>
+      <c r="B122" s="81"/>
+      <c r="C122" s="91"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="90"/>
+      <c r="B123" s="81"/>
+      <c r="C123" s="91"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="90"/>
+      <c r="B124" s="81"/>
+      <c r="C124" s="91"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="90"/>
+      <c r="B125" s="81"/>
+      <c r="C125" s="91"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="90"/>
+      <c r="B126" s="81"/>
+      <c r="C126" s="92"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="90"/>
+      <c r="B127" s="81"/>
+      <c r="C127" s="92"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="90"/>
+      <c r="B128" s="81"/>
+      <c r="C128" s="92"/>
     </row>
     <row r="129" spans="1:3">
-      <c r="B129" s="39"/>
-      <c r="C129" s="35"/>
+      <c r="A129" s="90"/>
+      <c r="B129" s="81"/>
+      <c r="C129" s="92"/>
     </row>
     <row r="130" spans="1:3">
-      <c r="B130" s="39"/>
-      <c r="C130" s="35"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="B131" s="39"/>
-      <c r="C131" s="35"/>
+      <c r="A130" s="90"/>
+      <c r="B130" s="81"/>
+      <c r="C130" s="92"/>
+    </row>
+    <row r="131" spans="1:3" ht="17.250000">
+      <c r="A131" s="93"/>
+      <c r="B131" s="94"/>
+      <c r="C131" s="98"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="C132" s="35"/>
+      <c r="A132" s="52"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="54"/>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="50" t="s">
+      <c r="A133" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="B133" s="49" t="s">
+      <c r="B133" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="C133" s="39" t="s">
+      <c r="C133" s="89" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="B134" s="39"/>
-      <c r="C134" s="39"/>
+      <c r="A134" s="90"/>
+      <c r="B134" s="81"/>
+      <c r="C134" s="91"/>
     </row>
     <row r="135" spans="1:3">
-      <c r="B135" s="39"/>
-      <c r="C135" s="39"/>
+      <c r="A135" s="90"/>
+      <c r="B135" s="81"/>
+      <c r="C135" s="91"/>
     </row>
     <row r="136" spans="1:3">
-      <c r="B136" s="39"/>
-      <c r="C136" s="39"/>
+      <c r="A136" s="90"/>
+      <c r="B136" s="81"/>
+      <c r="C136" s="91"/>
     </row>
     <row r="137" spans="1:3">
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
+      <c r="A137" s="90"/>
+      <c r="B137" s="81"/>
+      <c r="C137" s="91"/>
     </row>
     <row r="138" spans="1:3">
-      <c r="B138" s="39"/>
-      <c r="C138" s="39"/>
+      <c r="A138" s="90"/>
+      <c r="B138" s="81"/>
+      <c r="C138" s="91"/>
     </row>
     <row r="139" spans="1:3">
-      <c r="B139" s="39"/>
-      <c r="C139" s="39"/>
+      <c r="A139" s="90"/>
+      <c r="B139" s="81"/>
+      <c r="C139" s="91"/>
     </row>
     <row r="140" spans="1:3">
-      <c r="B140" s="39"/>
-      <c r="C140" s="39"/>
+      <c r="A140" s="90"/>
+      <c r="B140" s="81"/>
+      <c r="C140" s="91"/>
     </row>
     <row r="141" spans="1:3">
-      <c r="B141" s="39"/>
-      <c r="C141" s="39"/>
+      <c r="A141" s="90"/>
+      <c r="B141" s="81"/>
+      <c r="C141" s="91"/>
     </row>
     <row r="142" spans="1:3">
-      <c r="B142" s="39"/>
-      <c r="C142" s="35"/>
+      <c r="A142" s="90"/>
+      <c r="B142" s="81"/>
+      <c r="C142" s="92"/>
     </row>
     <row r="143" spans="1:3">
-      <c r="B143" s="39"/>
-      <c r="C143" s="35"/>
+      <c r="A143" s="90"/>
+      <c r="B143" s="81"/>
+      <c r="C143" s="92"/>
     </row>
     <row r="144" spans="1:3">
-      <c r="B144" s="39"/>
-      <c r="C144" s="35"/>
-    </row>
-    <row r="145" spans="2:3">
-      <c r="B145" s="39"/>
-      <c r="C145" s="35"/>
-    </row>
-    <row r="146" spans="2:3">
-      <c r="B146" s="39"/>
-      <c r="C146" s="35"/>
-    </row>
-    <row r="147" spans="2:3">
-      <c r="B147" s="39"/>
-      <c r="C147" s="35"/>
-    </row>
-    <row r="148" spans="2:3">
-      <c r="B148" s="39"/>
-    </row>
-    <row r="149" spans="2:3">
+      <c r="A144" s="90"/>
+      <c r="B144" s="81"/>
+      <c r="C144" s="92"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="90"/>
+      <c r="B145" s="81"/>
+      <c r="C145" s="92"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="90"/>
+      <c r="B146" s="81"/>
+      <c r="C146" s="92"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="90"/>
+      <c r="B147" s="81"/>
+      <c r="C147" s="92"/>
+    </row>
+    <row r="148" spans="1:3" ht="18.750000">
+      <c r="A148" s="93"/>
+      <c r="B148" s="94"/>
+      <c r="C148" s="95"/>
+    </row>
+    <row r="149" spans="1:3">
       <c r="B149" s="35"/>
     </row>
-    <row r="150" spans="2:3">
+    <row r="150" spans="1:3">
       <c r="B150" s="35"/>
     </row>
   </sheetData>
